--- a/Tópicos Avançados em Redes de Computadores/Aula 04/Calculos.xlsx
+++ b/Tópicos Avançados em Redes de Computadores/Aula 04/Calculos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">Especificações da Rede</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Pior Caso</t>
   </si>
   <si>
-    <t xml:space="preserve">Porta 1 (Splitter 1x2 A)</t>
+    <t xml:space="preserve">Porta 1 (Splitter 1x2 A – CTO 32)</t>
   </si>
   <si>
     <t xml:space="preserve">EPON</t>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t xml:space="preserve">Distancia (dBm / Km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atenuação Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinal na CTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porta 2 (Splitter 1x2 B – CTO 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porta 3 (Splitter 1x2 C – CTO 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porta 4 (Splitter 1x2 D – CTO 4)</t>
   </si>
 </sst>
 </file>
@@ -80,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,13 +116,32 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +153,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,24 +177,40 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Accent 1" xfId="20"/>
+    <cellStyle name="Accent 2" xfId="21"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -170,18 +220,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -189,99 +241,436 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.2</v>
       </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <f aca="false">$E2*G2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.1</v>
       </c>
+      <c r="G3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <f aca="false">$E3*G3</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.5</v>
       </c>
+      <c r="G4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">$E4*G4</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">$E5*G5</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="3" t="n">
         <v>-30</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="3" t="n">
         <v>7.3</v>
       </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">$E6*G6</f>
+        <v>7.3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="3" t="n">
         <v>10.5</v>
       </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">$E7*G7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="3" t="n">
         <v>0.35</v>
       </c>
+      <c r="G8" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">$E8*G8</f>
+        <v>0.2625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">H2+H3+H4+H5+H6+H7+H8</f>
+        <v>13.6625</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <f aca="false">$B5-H9</f>
+        <v>-11.1625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <f aca="false">$E2*G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">$E3*G14</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">$E4*G15</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <f aca="false">$E5*G16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <f aca="false">$E6*G17</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <f aca="false">$E7*G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <f aca="false">$E8*G19</f>
+        <v>0.1855</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <f aca="false">H13+H14+H15+H16+H17+H18+H19</f>
+        <v>13.5855</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <f aca="false">$B5-H20</f>
+        <v>-11.0855</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <f aca="false">$E2*G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <f aca="false">$E3*G25</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <f aca="false">$E4*G26</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <f aca="false">$E5*G27</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <f aca="false">$E6*G28</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <f aca="false">$E7*G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <f aca="false">$E8*G30</f>
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">H24+H25+H26+H27+H28+H29+H30</f>
+        <v>13.5925</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <f aca="false">$B5-H31</f>
+        <v>-11.0925</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <f aca="false">$E2*G35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <f aca="false">$E3*G36</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <f aca="false">$E4*G37</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <f aca="false">$E5*G38</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <f aca="false">$E6*G39</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <f aca="false">$E7*G40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <f aca="false">$E8*G41</f>
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <f aca="false">H35+H36+H37+H38+H39+H40+H41</f>
+        <v>13.568</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <f aca="false">$B5-H42</f>
+        <v>-11.068</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
